--- a/data/trans_orig/POLIPATOLOGIA_DISC-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_DISC-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80DEFF24-FDF4-43AB-B80F-045ED3B17609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{475A1DB1-4865-464F-AD50-5BBD9A41CCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5FF87A59-8494-4AF9-800F-ABED652880B2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73D46C07-EA10-426A-823D-F77A50ED4C65}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="534">
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -260,70 +260,70 @@
     <t>16,4%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
   </si>
   <si>
     <t>21,24%</t>
   </si>
   <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>83,6%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
   </si>
   <si>
     <t>78,76%</t>
   </si>
   <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>15,07%</t>
+    <t>15,11%</t>
   </si>
   <si>
     <t>23,85%</t>
@@ -332,19 +332,19 @@
     <t>15,45%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>80,81%</t>
@@ -353,1258 +353,1294 @@
     <t>76,15%</t>
   </si>
   <si>
-    <t>84,93%</t>
+    <t>84,89%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>85,64%</t>
   </si>
   <si>
-    <t>13,35%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
     <t>70,45%</t>
   </si>
   <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>75,91%</t>
   </si>
   <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
   </si>
   <si>
     <t>14,48%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
   </si>
   <si>
     <t>20,92%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
   </si>
   <si>
     <t>85,52%</t>
   </si>
   <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>79,08%</t>
   </si>
   <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>80,66%</t>
   </si>
   <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>11,17%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
+    <t>20,53%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>87,66%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>88,83%</t>
   </si>
   <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
+    <t>79,47%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551C1FEC-7CFD-4BD1-B62B-480BF80D1084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB68528-BA11-4254-BF08-DE3C042B1D39}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3458,7 +3494,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -3509,7 +3545,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -3547,7 +3583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E256ECE0-36D8-47F6-A1FF-D8DCD39F8770}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1378832-7CB1-4984-82A3-9D4998B9E0EA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5060,7 +5096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D24D337-0421-4EB4-8B23-22D29C41897E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A202FFD-2BB0-43EB-B7A3-5C1092D6E77A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5515,7 +5551,7 @@
         <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -5524,13 +5560,13 @@
         <v>74909</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5581,13 @@
         <v>297258</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>285</v>
@@ -5560,13 +5596,13 @@
         <v>282708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>596</v>
@@ -5575,13 +5611,13 @@
         <v>579965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5685,13 @@
         <v>36698</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -5664,13 +5700,13 @@
         <v>90627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -5679,13 +5715,13 @@
         <v>127325</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5736,13 @@
         <v>333266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>281</v>
@@ -5715,13 +5751,13 @@
         <v>296656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>598</v>
@@ -5730,13 +5766,13 @@
         <v>629922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5840,13 @@
         <v>26891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>127</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -5819,13 +5855,13 @@
         <v>51260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -5834,13 +5870,13 @@
         <v>78151</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5891,13 @@
         <v>184330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
         <v>172</v>
@@ -5870,13 +5906,13 @@
         <v>167327</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>357</v>
@@ -5885,13 +5921,13 @@
         <v>351657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5995,13 @@
         <v>33165</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -5974,13 +6010,13 @@
         <v>59133</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -5989,13 +6025,13 @@
         <v>92298</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>150</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6046,13 @@
         <v>229958</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>211</v>
@@ -6025,13 +6061,13 @@
         <v>213982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>435</v>
@@ -6040,13 +6076,13 @@
         <v>443940</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6150,13 @@
         <v>49166</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H22" s="7">
         <v>98</v>
@@ -6129,13 +6165,13 @@
         <v>111261</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>143</v>
@@ -6144,13 +6180,13 @@
         <v>160427</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6201,13 @@
         <v>607392</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H23" s="7">
         <v>548</v>
@@ -6180,13 +6216,13 @@
         <v>580033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>1083</v>
@@ -6195,13 +6231,13 @@
         <v>1187425</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6305,13 @@
         <v>71356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>122</v>
@@ -6284,13 +6320,13 @@
         <v>145055</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>192</v>
@@ -6299,13 +6335,13 @@
         <v>216411</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,13 +6356,13 @@
         <v>707227</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>633</v>
@@ -6335,13 +6371,13 @@
         <v>681112</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>1313</v>
@@ -6350,13 +6386,13 @@
         <v>1388339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,13 +6460,13 @@
         <v>314603</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>217</v>
+        <v>363</v>
       </c>
       <c r="H28" s="7">
         <v>610</v>
@@ -6439,13 +6475,13 @@
         <v>693672</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M28" s="7">
         <v>922</v>
@@ -6454,13 +6490,13 @@
         <v>1008275</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6511,13 @@
         <v>3079747</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>226</v>
+        <v>371</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H29" s="7">
         <v>2728</v>
@@ -6490,13 +6526,13 @@
         <v>2850870</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M29" s="7">
         <v>5647</v>
@@ -6505,13 +6541,13 @@
         <v>5930617</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,7 +6627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABC589D-BD8E-440B-857F-35DC430E4532}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95113812-E5E4-466F-81E5-7309510693EA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6608,7 +6644,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6715,13 +6751,13 @@
         <v>22210</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>382</v>
       </c>
       <c r="H4" s="7">
         <v>81</v>
@@ -6730,13 +6766,13 @@
         <v>36509</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>384</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
@@ -6745,13 +6781,13 @@
         <v>58719</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6802,13 @@
         <v>238088</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>390</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>457</v>
@@ -6781,13 +6817,13 @@
         <v>234894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>393</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>758</v>
@@ -6796,13 +6832,13 @@
         <v>472981</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,13 +6906,13 @@
         <v>59548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>189</v>
@@ -6885,13 +6921,13 @@
         <v>131364</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>240</v>
@@ -6900,13 +6936,13 @@
         <v>190912</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6921,13 +6957,13 @@
         <v>459749</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>528</v>
@@ -6936,13 +6972,13 @@
         <v>423202</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>859</v>
@@ -6951,13 +6987,13 @@
         <v>882952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,13 +7061,13 @@
         <v>51593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -7040,13 +7076,13 @@
         <v>89180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>220</v>
@@ -7055,13 +7091,13 @@
         <v>140773</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7076,13 +7112,13 @@
         <v>270647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="H11" s="7">
         <v>382</v>
@@ -7091,13 +7127,13 @@
         <v>284104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>676</v>
@@ -7106,13 +7142,13 @@
         <v>554751</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,13 +7216,13 @@
         <v>62476</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="H13" s="7">
         <v>201</v>
@@ -7195,13 +7231,13 @@
         <v>110798</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="M13" s="7">
         <v>266</v>
@@ -7210,13 +7246,13 @@
         <v>173274</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7267,13 @@
         <v>259764</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>428</v>
+        <v>338</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>398</v>
@@ -7246,13 +7282,13 @@
         <v>317758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>625</v>
@@ -7261,13 +7297,13 @@
         <v>577522</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7335,13 +7371,13 @@
         <v>16408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>437</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -7350,13 +7386,13 @@
         <v>44791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>169</v>
+        <v>453</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
@@ -7365,13 +7401,13 @@
         <v>61199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,13 +7422,13 @@
         <v>180340</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>458</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>443</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>394</v>
@@ -7401,13 +7437,13 @@
         <v>214722</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>646</v>
@@ -7416,13 +7452,13 @@
         <v>395061</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,13 +7526,13 @@
         <v>51731</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>168</v>
@@ -7505,13 +7541,13 @@
         <v>81436</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>254</v>
@@ -7520,13 +7556,13 @@
         <v>133167</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7577,13 @@
         <v>225492</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>292</v>
@@ -7556,13 +7592,13 @@
         <v>194186</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>577</v>
@@ -7571,13 +7607,13 @@
         <v>419678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,13 +7681,13 @@
         <v>90922</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="H22" s="7">
         <v>304</v>
@@ -7660,13 +7696,13 @@
         <v>208606</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>400</v>
@@ -7675,13 +7711,13 @@
         <v>299528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,13 +7732,13 @@
         <v>536832</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>656</v>
@@ -7711,13 +7747,13 @@
         <v>595597</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>1159</v>
@@ -7726,13 +7762,13 @@
         <v>1132429</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7836,13 @@
         <v>62862</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="H25" s="7">
         <v>227</v>
@@ -7815,13 +7851,13 @@
         <v>167963</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="M25" s="7">
         <v>297</v>
@@ -7830,13 +7866,13 @@
         <v>230825</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7851,13 +7887,13 @@
         <v>796566</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="H26" s="7">
         <v>835</v>
@@ -7866,13 +7902,13 @@
         <v>700471</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="M26" s="7">
         <v>1527</v>
@@ -7881,13 +7917,13 @@
         <v>1497037</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7955,13 +7991,13 @@
         <v>417750</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>506</v>
+        <v>273</v>
       </c>
       <c r="H28" s="7">
         <v>1425</v>
@@ -7970,13 +8006,13 @@
         <v>870647</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>509</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>1916</v>
@@ -7985,13 +8021,13 @@
         <v>1288397</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8006,13 +8042,13 @@
         <v>2967478</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>514</v>
+        <v>281</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="H29" s="7">
         <v>3942</v>
@@ -8021,28 +8057,28 @@
         <v>2964934</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>517</v>
+        <v>141</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="M29" s="7">
         <v>6827</v>
       </c>
       <c r="N29" s="7">
-        <v>5932412</v>
+        <v>5932411</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,7 +8120,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/POLIPATOLOGIA_DISC-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_DISC-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{475A1DB1-4865-464F-AD50-5BBD9A41CCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C704DB03-1E24-4A93-A06A-9B7E93923E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73D46C07-EA10-426A-823D-F77A50ED4C65}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F2E40B16-CDB6-477E-869C-3BECE21B7E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="532">
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -260,508 +260,496 @@
     <t>16,4%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>21,24%</t>
   </si>
   <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>83,6%</t>
   </si>
   <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
   </si>
   <si>
     <t>78,76%</t>
   </si>
   <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>80,81%</t>
   </si>
   <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
   </si>
   <si>
     <t>16,27%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>89,97%</t>
   </si>
   <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
   </si>
   <si>
     <t>83,73%</t>
   </si>
   <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>34,73%</t>
   </si>
   <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>65,27%</t>
   </si>
   <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
   </si>
   <si>
     <t>24,53%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>75,47%</t>
   </si>
   <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
   </si>
   <si>
     <t>79,17%</t>
   </si>
   <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>90,9%</t>
   </si>
   <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>81,92%</t>
   </si>
   <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
   </si>
   <si>
     <t>17,99%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>14,38%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
+    <t>16,31%</t>
   </si>
   <si>
     <t>89,43%</t>
   </si>
   <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>82,01%</t>
   </si>
   <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>85,62%</t>
   </si>
   <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>78,32%</t>
   </si>
   <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>25,1%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
   </si>
   <si>
     <t>17,63%</t>
   </si>
   <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>89,72%</t>
   </si>
   <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
   </si>
   <si>
     <t>74,9%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>82,37%</t>
   </si>
   <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>15,22%</t>
@@ -770,31 +758,31 @@
     <t>13,02%</t>
   </si>
   <si>
-    <t>17,61%</t>
+    <t>17,67%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>82,39%</t>
+    <t>82,33%</t>
   </si>
   <si>
     <t>86,98%</t>
@@ -803,826 +791,832 @@
     <t>6,69%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>88,04%</t>
   </si>
   <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
   </si>
   <si>
     <t>13,55%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>86,45%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
   </si>
   <si>
     <t>88,83%</t>
@@ -2052,7 +2046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB68528-BA11-4254-BF08-DE3C042B1D39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFC9721-247F-4B2E-A2AB-9B3B5A5AC43C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3464,7 +3458,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -3515,7 +3509,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -3583,7 +3577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1378832-7CB1-4984-82A3-9D4998B9E0EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC33ED-84DE-4AF4-909C-C1F55F929A97}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4807,10 +4801,10 @@
         <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4819,13 @@
         <v>696764</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>620</v>
@@ -4840,13 +4834,13 @@
         <v>675665</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>1265</v>
@@ -4855,13 +4849,13 @@
         <v>1372429</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,13 +4923,13 @@
         <v>405077</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>719</v>
@@ -4944,13 +4938,13 @@
         <v>771416</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>1086</v>
@@ -4959,13 +4953,13 @@
         <v>1176493</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +4974,13 @@
         <v>3021702</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>2579</v>
@@ -4995,13 +4989,13 @@
         <v>2786893</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>5421</v>
@@ -5010,13 +5004,13 @@
         <v>5808595</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,7 +5090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A202FFD-2BB0-43EB-B7A3-5C1092D6E77A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAB7F93-1C82-4D55-9F35-CD2F512C533C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5113,7 +5107,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5220,13 +5214,13 @@
         <v>30207</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>66</v>
@@ -5235,13 +5229,13 @@
         <v>72476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>95</v>
@@ -5250,13 +5244,13 @@
         <v>102682</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5265,13 @@
         <v>263554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>211</v>
@@ -5286,13 +5280,13 @@
         <v>216227</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>448</v>
@@ -5301,13 +5295,13 @@
         <v>479782</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5369,13 @@
         <v>45812</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -5390,13 +5384,13 @@
         <v>110258</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>142</v>
@@ -5405,13 +5399,13 @@
         <v>156071</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5420,13 @@
         <v>456763</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>387</v>
@@ -5441,13 +5435,13 @@
         <v>412826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>817</v>
@@ -5456,13 +5450,13 @@
         <v>869588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5524,13 @@
         <v>21307</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -5545,13 +5539,13 @@
         <v>53601</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -5560,13 +5554,13 @@
         <v>74909</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5575,13 @@
         <v>297258</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>285</v>
@@ -5596,13 +5590,13 @@
         <v>282708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>596</v>
@@ -5611,13 +5605,13 @@
         <v>579965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5679,13 @@
         <v>36698</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -5700,13 +5694,13 @@
         <v>90627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -5715,13 +5709,13 @@
         <v>127325</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5730,13 @@
         <v>333266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>281</v>
@@ -5751,13 +5745,13 @@
         <v>296656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>598</v>
@@ -5766,13 +5760,13 @@
         <v>629922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5834,13 @@
         <v>26891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -5855,13 +5849,13 @@
         <v>51260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -5870,13 +5864,13 @@
         <v>78151</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5885,13 @@
         <v>184330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>172</v>
@@ -5906,13 +5900,13 @@
         <v>167327</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>357</v>
@@ -5921,13 +5915,13 @@
         <v>351657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5995,13 +5989,13 @@
         <v>33165</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>201</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -6010,13 +6004,13 @@
         <v>59133</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -6025,13 +6019,13 @@
         <v>92298</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6040,13 @@
         <v>229958</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>211</v>
@@ -6061,13 +6055,13 @@
         <v>213982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>435</v>
@@ -6076,13 +6070,13 @@
         <v>443940</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6144,13 @@
         <v>49166</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H22" s="7">
         <v>98</v>
@@ -6165,13 +6159,13 @@
         <v>111261</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>143</v>
@@ -6180,13 +6174,13 @@
         <v>160427</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6195,13 @@
         <v>607392</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>548</v>
@@ -6216,13 +6210,13 @@
         <v>580033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>1083</v>
@@ -6231,13 +6225,13 @@
         <v>1187425</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,13 +6299,13 @@
         <v>71356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>122</v>
@@ -6320,13 +6314,13 @@
         <v>145055</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>192</v>
@@ -6335,13 +6329,13 @@
         <v>216411</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6350,13 @@
         <v>707227</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>633</v>
@@ -6371,13 +6365,13 @@
         <v>681112</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M26" s="7">
         <v>1313</v>
@@ -6386,13 +6380,13 @@
         <v>1388339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,13 +6454,13 @@
         <v>314603</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H28" s="7">
         <v>610</v>
@@ -6475,13 +6469,13 @@
         <v>693672</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M28" s="7">
         <v>922</v>
@@ -6490,13 +6484,13 @@
         <v>1008275</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,13 +6505,13 @@
         <v>3079747</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H29" s="7">
         <v>2728</v>
@@ -6526,13 +6520,13 @@
         <v>2850870</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M29" s="7">
         <v>5647</v>
@@ -6541,13 +6535,13 @@
         <v>5930617</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,7 +6621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95113812-E5E4-466F-81E5-7309510693EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B92FB0E-9B93-4FD7-97E6-5AC9EF7051B2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6644,7 +6638,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6751,13 +6745,13 @@
         <v>22210</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H4" s="7">
         <v>81</v>
@@ -6766,13 +6760,13 @@
         <v>36509</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
@@ -6781,13 +6775,13 @@
         <v>58719</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6796,13 @@
         <v>238088</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H5" s="7">
         <v>457</v>
@@ -6817,13 +6811,13 @@
         <v>234894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="M5" s="7">
         <v>758</v>
@@ -6832,13 +6826,13 @@
         <v>472981</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6900,13 @@
         <v>59548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H7" s="7">
         <v>189</v>
@@ -6921,13 +6915,13 @@
         <v>131364</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M7" s="7">
         <v>240</v>
@@ -6936,13 +6930,13 @@
         <v>190912</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6951,13 @@
         <v>459749</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>528</v>
@@ -6972,13 +6966,13 @@
         <v>423202</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M8" s="7">
         <v>859</v>
@@ -6987,13 +6981,13 @@
         <v>882952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7055,13 @@
         <v>51593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -7076,13 +7070,13 @@
         <v>89180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="M10" s="7">
         <v>220</v>
@@ -7091,13 +7085,13 @@
         <v>140773</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,13 +7106,13 @@
         <v>270647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H11" s="7">
         <v>382</v>
@@ -7127,13 +7121,13 @@
         <v>284104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="M11" s="7">
         <v>676</v>
@@ -7142,13 +7136,13 @@
         <v>554751</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7216,13 +7210,13 @@
         <v>62476</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>201</v>
@@ -7231,13 +7225,13 @@
         <v>110798</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M13" s="7">
         <v>266</v>
@@ -7246,13 +7240,13 @@
         <v>173274</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,13 +7261,13 @@
         <v>259764</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>338</v>
+        <v>435</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>398</v>
@@ -7282,13 +7276,13 @@
         <v>317758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>625</v>
@@ -7297,13 +7291,13 @@
         <v>577522</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7371,13 +7365,13 @@
         <v>16408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -7386,13 +7380,13 @@
         <v>44791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
@@ -7401,13 +7395,13 @@
         <v>61199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,13 +7416,13 @@
         <v>180340</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>394</v>
@@ -7437,13 +7431,13 @@
         <v>214722</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>646</v>
@@ -7452,13 +7446,13 @@
         <v>395061</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,13 +7520,13 @@
         <v>51731</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H19" s="7">
         <v>168</v>
@@ -7541,13 +7535,13 @@
         <v>81436</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M19" s="7">
         <v>254</v>
@@ -7556,13 +7550,13 @@
         <v>133167</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,13 +7571,13 @@
         <v>225492</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7">
         <v>292</v>
@@ -7592,13 +7586,13 @@
         <v>194186</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M20" s="7">
         <v>577</v>
@@ -7607,13 +7601,13 @@
         <v>419678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,13 +7675,13 @@
         <v>90922</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H22" s="7">
         <v>304</v>
@@ -7696,13 +7690,13 @@
         <v>208606</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M22" s="7">
         <v>400</v>
@@ -7711,13 +7705,13 @@
         <v>299528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,13 +7726,13 @@
         <v>536832</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H23" s="7">
         <v>656</v>
@@ -7747,13 +7741,13 @@
         <v>595597</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
         <v>1159</v>
@@ -7762,13 +7756,13 @@
         <v>1132429</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7836,13 +7830,13 @@
         <v>62862</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H25" s="7">
         <v>227</v>
@@ -7851,13 +7845,13 @@
         <v>167963</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M25" s="7">
         <v>297</v>
@@ -7866,13 +7860,13 @@
         <v>230825</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,13 +7881,13 @@
         <v>796566</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H26" s="7">
         <v>835</v>
@@ -7902,13 +7896,13 @@
         <v>700471</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M26" s="7">
         <v>1527</v>
@@ -7917,13 +7911,13 @@
         <v>1497037</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7991,13 +7985,13 @@
         <v>417750</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>273</v>
+        <v>518</v>
       </c>
       <c r="H28" s="7">
         <v>1425</v>
@@ -8006,10 +8000,10 @@
         <v>870647</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>132</v>
@@ -8021,13 +8015,13 @@
         <v>1288397</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8042,13 +8036,13 @@
         <v>2967478</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>281</v>
+        <v>525</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H29" s="7">
         <v>3942</v>
@@ -8057,13 +8051,13 @@
         <v>2964934</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>141</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M29" s="7">
         <v>6827</v>
@@ -8072,13 +8066,13 @@
         <v>5932411</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/POLIPATOLOGIA_DISC-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_DISC-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C704DB03-1E24-4A93-A06A-9B7E93923E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D26099CF-0D87-4A0D-A395-E8F0ACC350E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F2E40B16-CDB6-477E-869C-3BECE21B7E6F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74FA43AD-1BA8-4E09-96FB-B430305E8D51}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="522">
   <si>
     <t>Población con dos o más enfermedades crónicas discapacitantes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -260,1339 +260,1303 @@
     <t>16,4%</t>
   </si>
   <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>86,84%</t>
   </si>
   <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>84,81%</t>
   </si>
   <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>Población con dos o más enfermedades crónicas discapacitantes en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
     <t>79,08%</t>
   </si>
   <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>80,66%</t>
   </si>
   <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>86,64%</t>
   </si>
   <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>11,17%</t>
+    <t>11,21%</t>
   </si>
   <si>
     <t>13,55%</t>
@@ -1601,16 +1565,19 @@
     <t>22,7%</t>
   </si>
   <si>
-    <t>20,53%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>87,66%</t>
@@ -1619,22 +1586,25 @@
     <t>86,45%</t>
   </si>
   <si>
-    <t>88,83%</t>
+    <t>88,79%</t>
   </si>
   <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>79,47%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFC9721-247F-4B2E-A2AB-9B3B5A5AC43C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5477E550-40F7-4FBE-8F22-A9C96BFA8738}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3458,7 +3428,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -3488,7 +3458,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -3509,7 +3479,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -3539,7 +3509,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -3577,7 +3547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC33ED-84DE-4AF4-909C-C1F55F929A97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51695302-64B3-4C19-8758-6091BB47D00A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4801,10 +4771,10 @@
         <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4789,13 @@
         <v>696764</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>620</v>
@@ -4834,13 +4804,13 @@
         <v>675665</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>1265</v>
@@ -4849,13 +4819,13 @@
         <v>1372429</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4893,13 @@
         <v>405077</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>719</v>
@@ -4938,13 +4908,13 @@
         <v>771416</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>1086</v>
@@ -4953,13 +4923,13 @@
         <v>1176493</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4944,13 @@
         <v>3021702</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>2579</v>
@@ -4989,13 +4959,13 @@
         <v>2786893</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>5421</v>
@@ -5004,13 +4974,13 @@
         <v>5808595</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,7 +5060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAB7F93-1C82-4D55-9F35-CD2F512C533C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921BEAB6-6C6C-43C0-B984-48EF96D6E85B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5107,7 +5077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5214,13 +5184,13 @@
         <v>30207</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>66</v>
@@ -5229,13 +5199,13 @@
         <v>72476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>95</v>
@@ -5244,13 +5214,13 @@
         <v>102682</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5235,13 @@
         <v>263554</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H5" s="7">
         <v>211</v>
@@ -5280,13 +5250,13 @@
         <v>216227</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>448</v>
@@ -5295,13 +5265,13 @@
         <v>479782</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,13 +5339,13 @@
         <v>45812</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>97</v>
@@ -5384,13 +5354,13 @@
         <v>110258</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>142</v>
@@ -5399,13 +5369,13 @@
         <v>156071</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5390,13 @@
         <v>456763</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>387</v>
@@ -5435,13 +5405,13 @@
         <v>412826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>817</v>
@@ -5450,13 +5420,13 @@
         <v>869588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,13 +5494,13 @@
         <v>21307</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -5539,13 +5509,13 @@
         <v>53601</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -5554,13 +5524,13 @@
         <v>74909</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5545,13 @@
         <v>297258</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H11" s="7">
         <v>285</v>
@@ -5590,13 +5560,13 @@
         <v>282708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M11" s="7">
         <v>596</v>
@@ -5605,13 +5575,13 @@
         <v>579965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5649,13 @@
         <v>36698</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -5694,13 +5664,13 @@
         <v>90627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -5709,13 +5679,13 @@
         <v>127325</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5700,13 @@
         <v>333266</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>281</v>
@@ -5745,13 +5715,13 @@
         <v>296656</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>598</v>
@@ -5760,13 +5730,13 @@
         <v>629922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5804,13 @@
         <v>26891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -5849,13 +5819,13 @@
         <v>51260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -5864,13 +5834,13 @@
         <v>78151</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5855,13 @@
         <v>184330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>137</v>
       </c>
       <c r="H17" s="7">
         <v>172</v>
@@ -5995,7 +5965,7 @@
         <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -6004,13 +5974,13 @@
         <v>59133</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -6019,13 +5989,13 @@
         <v>92298</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,10 +6013,10 @@
         <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>211</v>
@@ -6055,13 +6025,13 @@
         <v>213982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>435</v>
@@ -6070,10 +6040,10 @@
         <v>443940</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>318</v>
@@ -6162,10 +6132,10 @@
         <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>143</v>
@@ -6174,13 +6144,13 @@
         <v>160427</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6165,13 @@
         <v>607392</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H23" s="7">
         <v>548</v>
@@ -6210,13 +6180,13 @@
         <v>580033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>1083</v>
@@ -6225,13 +6195,13 @@
         <v>1187425</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6269,13 @@
         <v>71356</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>122</v>
@@ -6314,13 +6284,13 @@
         <v>145055</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M25" s="7">
         <v>192</v>
@@ -6329,13 +6299,13 @@
         <v>216411</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6320,13 @@
         <v>707227</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H26" s="7">
         <v>633</v>
@@ -6365,13 +6335,13 @@
         <v>681112</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
         <v>1313</v>
@@ -6380,13 +6350,13 @@
         <v>1388339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,13 +6424,13 @@
         <v>314603</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>355</v>
+        <v>217</v>
       </c>
       <c r="H28" s="7">
         <v>610</v>
@@ -6469,13 +6439,13 @@
         <v>693672</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M28" s="7">
         <v>922</v>
@@ -6484,13 +6454,13 @@
         <v>1008275</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,10 +6475,10 @@
         <v>3079747</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>363</v>
+        <v>226</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>364</v>
@@ -6621,7 +6591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B92FB0E-9B93-4FD7-97E6-5AC9EF7051B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F6CD60-58EA-47FC-9403-4CC5684BA2AE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6751,7 +6721,7 @@
         <v>373</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>374</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>81</v>
@@ -6760,13 +6730,13 @@
         <v>36509</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>376</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>377</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
@@ -6775,13 +6745,13 @@
         <v>58719</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6766,13 @@
         <v>238088</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>382</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H5" s="7">
         <v>457</v>
@@ -6811,13 +6781,13 @@
         <v>234894</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>385</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>386</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>758</v>
@@ -6826,13 +6796,13 @@
         <v>472981</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,13 +6870,13 @@
         <v>59548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>189</v>
@@ -6915,13 +6885,13 @@
         <v>131364</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M7" s="7">
         <v>240</v>
@@ -6930,13 +6900,13 @@
         <v>190912</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,13 +6921,13 @@
         <v>459749</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H8" s="7">
         <v>528</v>
@@ -6966,13 +6936,13 @@
         <v>423202</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M8" s="7">
         <v>859</v>
@@ -6981,13 +6951,13 @@
         <v>882952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,13 +7025,13 @@
         <v>51593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -7070,13 +7040,13 @@
         <v>89180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M10" s="7">
         <v>220</v>
@@ -7085,13 +7055,13 @@
         <v>140773</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,13 +7076,13 @@
         <v>270647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H11" s="7">
         <v>382</v>
@@ -7121,13 +7091,13 @@
         <v>284104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M11" s="7">
         <v>676</v>
@@ -7136,13 +7106,13 @@
         <v>554751</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,13 +7180,13 @@
         <v>62476</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>427</v>
+        <v>166</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H13" s="7">
         <v>201</v>
@@ -7225,13 +7195,13 @@
         <v>110798</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M13" s="7">
         <v>266</v>
@@ -7240,13 +7210,13 @@
         <v>173274</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,13 +7231,13 @@
         <v>259764</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>176</v>
       </c>
       <c r="H14" s="7">
         <v>398</v>
@@ -7276,13 +7246,13 @@
         <v>317758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M14" s="7">
         <v>625</v>
@@ -7291,13 +7261,13 @@
         <v>577522</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,13 +7335,13 @@
         <v>16408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>181</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -7380,13 +7350,13 @@
         <v>44791</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>448</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
@@ -7395,13 +7365,13 @@
         <v>61199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,13 +7386,13 @@
         <v>180340</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>453</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="H17" s="7">
         <v>394</v>
@@ -7431,13 +7401,13 @@
         <v>214722</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
         <v>646</v>
@@ -7446,13 +7416,13 @@
         <v>395061</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,13 +7490,13 @@
         <v>51731</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="H19" s="7">
         <v>168</v>
@@ -7535,13 +7505,13 @@
         <v>81436</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="M19" s="7">
         <v>254</v>
@@ -7550,13 +7520,13 @@
         <v>133167</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,13 +7541,13 @@
         <v>225492</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="H20" s="7">
         <v>292</v>
@@ -7586,13 +7556,13 @@
         <v>194186</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="M20" s="7">
         <v>577</v>
@@ -7601,13 +7571,13 @@
         <v>419678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7645,13 @@
         <v>90922</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="H22" s="7">
         <v>304</v>
@@ -7690,13 +7660,13 @@
         <v>208606</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="M22" s="7">
         <v>400</v>
@@ -7705,13 +7675,13 @@
         <v>299528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7696,13 @@
         <v>536832</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="H23" s="7">
         <v>656</v>
@@ -7741,13 +7711,13 @@
         <v>595597</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="M23" s="7">
         <v>1159</v>
@@ -7756,13 +7726,13 @@
         <v>1132429</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7830,13 +7800,13 @@
         <v>62862</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="H25" s="7">
         <v>227</v>
@@ -7845,13 +7815,13 @@
         <v>167963</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="M25" s="7">
         <v>297</v>
@@ -7860,13 +7830,13 @@
         <v>230825</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7881,13 +7851,13 @@
         <v>796566</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="H26" s="7">
         <v>835</v>
@@ -7896,13 +7866,13 @@
         <v>700471</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="M26" s="7">
         <v>1527</v>
@@ -7911,13 +7881,13 @@
         <v>1497037</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7985,13 +7955,13 @@
         <v>417750</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="H28" s="7">
         <v>1425</v>
@@ -8000,13 +7970,13 @@
         <v>870647</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>509</v>
       </c>
       <c r="M28" s="7">
         <v>1916</v>
@@ -8015,13 +7985,13 @@
         <v>1288397</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8036,13 +8006,13 @@
         <v>2967478</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="H29" s="7">
         <v>3942</v>
@@ -8051,28 +8021,28 @@
         <v>2964934</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>141</v>
+        <v>517</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="M29" s="7">
         <v>6827</v>
       </c>
       <c r="N29" s="7">
-        <v>5932411</v>
+        <v>5932412</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8114,7 +8084,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
